--- a/ERD/ERD.xlsx
+++ b/ERD/ERD.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>long int</t>
   </si>
@@ -107,6 +107,36 @@
   </si>
   <si>
     <t>child_id</t>
+  </si>
+  <si>
+    <t>Example JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id:1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name:"Olpers Milk 1 Ltr Carton",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    desc:"Olper's full cream milk in convenient 1 Ltr twist cap packaging",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    barcode:"23089472820",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    brand: "Engro Foods",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price:"1438",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rating:"4",</t>
+  </si>
+  <si>
+    <t>stock_qty:20,</t>
+  </si>
+  <si>
+    <t>tags:"milk,full cream,dairy"</t>
   </si>
 </sst>
 </file>
@@ -580,13 +610,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -597,50 +629,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
